--- a/excel_file1.xlsx
+++ b/excel_file1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamunur.shawon\PycharmProjects\testpro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB14A10-3508-4926-B037-BC98896E5FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3E81FE-0F14-4167-8A98-73CF3712AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -300,6 +300,120 @@
 (select t.e_money_freeze_id from DMS.E_MONEY_REFUND_MERCHANT@mwtodr  t where t.id in ('3765771', '3784451', '3783655' , '3785584', '3786578', '3786655', '3786656')))</t>
   </si>
   <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>farah.tasneem@nagad.com.bd</t>
+  </si>
+  <si>
+    <t>MERCHANT</t>
+  </si>
+  <si>
+    <t>E_MONEY_REFUND_MERCHANT</t>
+  </si>
+  <si>
+    <t>mohiul.omi@nagad.com.bd</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>111007</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>MC00IWPQ006296</t>
+  </si>
+  <si>
+    <t>17-APR-24 03.00.03.032000 PM</t>
+  </si>
+  <si>
+    <t>24-APR-24 10.48.57.132000 AM</t>
+  </si>
+  <si>
+    <t>24-APR-24 10.48.56.777000 AM</t>
+  </si>
+  <si>
+    <t>0417090003</t>
+  </si>
+  <si>
+    <t>mc006297</t>
+  </si>
+  <si>
+    <t>POR000000011350233</t>
+  </si>
+  <si>
+    <t>20240417090003</t>
+  </si>
+  <si>
+    <t>POR000000011449950</t>
+  </si>
+  <si>
+    <t>20240424044856</t>
+  </si>
+  <si>
+    <t>17-APR-24 03.00.03.035000 PM</t>
+  </si>
+  <si>
+    <t>24-APR-24 10.48.57.134000 AM</t>
+  </si>
+  <si>
+    <t>3875306</t>
+  </si>
+  <si>
+    <t>18-APR-24 10.07.26.499000 AM</t>
+  </si>
+  <si>
+    <t>24-APR-24 10.48.56.785000 AM</t>
+  </si>
+  <si>
+    <t>24-APR-24 10.48.56.813000 AM</t>
+  </si>
+  <si>
+    <t>76E6CF0D05B5B8733B994A3E35C12B55</t>
+  </si>
+  <si>
+    <t>72T1WRV8</t>
+  </si>
+  <si>
+    <t>17-APR-24 03.00.04.475000 PM</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>441172</t>
+  </si>
+  <si>
+    <t>DW87HP</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>596878</t>
+  </si>
+  <si>
+    <t>0780</t>
+  </si>
+  <si>
+    <t>8DF57ECCCB52BB734A17CC4A05C73E690AE3C38AC33CDFD5</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>66C815E4679741CCD350EAF6B34BFCE394CB65570C54DB38</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>DFS112233445566</t>
   </si>
   <si>
@@ -309,124 +423,13 @@
     <t>DFS                    Dhaka         BGD</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>66C815E4679741CCD350EAF6B34BFCE394CB65570C54DB38</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>DIS00W2AW00155951</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>06-MAR-24 11.56.59.921000 AM</t>
-  </si>
-  <si>
-    <t>10-MAR-24 01.47.36.947000 PM</t>
-  </si>
-  <si>
-    <t>10-MAR-24 01.47.30.835000 PM</t>
-  </si>
-  <si>
-    <t>72O6HR4Z</t>
-  </si>
-  <si>
-    <t>totinee.mostafa@nagad.com.bd</t>
-  </si>
-  <si>
-    <t>d1886</t>
-  </si>
-  <si>
-    <t>POR000000010717126</t>
-  </si>
-  <si>
-    <t>20240306055659</t>
-  </si>
-  <si>
-    <t>POR000000010767862</t>
-  </si>
-  <si>
-    <t>20240310074730</t>
-  </si>
-  <si>
-    <t>PARTNER</t>
-  </si>
-  <si>
-    <t>06-MAR-24 11.56.59.923000 AM</t>
-  </si>
-  <si>
-    <t>10-MAR-24 01.47.36.950000 PM</t>
-  </si>
-  <si>
-    <t>1474793</t>
-  </si>
-  <si>
-    <t>E_MONEY_REFUND</t>
-  </si>
-  <si>
-    <t>10-MAR-24 01.47.30.837000 PM</t>
-  </si>
-  <si>
-    <t>7FC13771EF3852DFE884E91722E90D50</t>
-  </si>
-  <si>
-    <t>72NSR0BJ</t>
-  </si>
-  <si>
-    <t>0306055659</t>
-  </si>
-  <si>
-    <t>06-MAR-24 11.57.00.010000 AM</t>
-  </si>
-  <si>
-    <t>CANCELLED</t>
-  </si>
-  <si>
-    <t>10-MAR-24 01.47.33.002000 PM</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>752050</t>
-  </si>
-  <si>
-    <t>8SCEW5</t>
-  </si>
-  <si>
-    <t>95O44M</t>
-  </si>
-  <si>
-    <t>807587</t>
-  </si>
-  <si>
-    <t>598278</t>
-  </si>
-  <si>
-    <t>958172BEE5EE4DB0BDBC5EDA89EE37629180ADD9AE5E0A39</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>06-MAR-24 11.56.59.953000 AM</t>
-  </si>
-  <si>
-    <t>10-MAR-24 01.47.32.507000 PM</t>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>17-APR-24 03.00.03.107000 PM</t>
+  </si>
+  <si>
+    <t>17-APR-24 03.00.03.241000 PM</t>
   </si>
 </sst>
 </file>
@@ -472,14 +475,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,7 +778,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -889,57 +889,60 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>1474793</v>
+        <v>3875306</v>
       </c>
       <c r="C2">
-        <v>1500000</v>
+        <v>1985.87</v>
       </c>
       <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="E2">
-        <v>1247450</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2">
+        <v>131</v>
+      </c>
+      <c r="J2" t="s">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>101</v>
       </c>
-      <c r="I2">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
         <v>102</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>103</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>104</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>105</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>106</v>
       </c>
-      <c r="P2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" t="s">
-        <v>109</v>
+      <c r="S2">
+        <v>4153875</v>
       </c>
       <c r="T2">
-        <v>4901871</v>
-      </c>
-      <c r="U2" t="s">
+        <v>5178838</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -955,7 +958,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1053,52 +1056,55 @@
     </row>
     <row r="2" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>13220599</v>
+        <v>13675385</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>269100</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="Q2">
         <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1116,7 +1122,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1182,34 +1188,37 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>7174832</v>
+        <v>7574775</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>269100</v>
       </c>
       <c r="D2">
-        <v>13220599</v>
+        <v>13675385</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1233,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1303,14 +1312,39 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
+      <c r="B2">
+        <v>4153875</v>
+      </c>
+      <c r="C2">
+        <v>1985.87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2">
+        <v>3875306</v>
+      </c>
       <c r="P2" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1327,7 +1361,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1430,64 +1464,67 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>4901871</v>
+        <v>5178838</v>
       </c>
       <c r="C2">
-        <v>1500000</v>
+        <v>1985.87</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O2" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
       </c>
       <c r="Q2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="U2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W2">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1643,94 +1680,79 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>5341266</v>
+        <v>5663155</v>
       </c>
       <c r="C2">
-        <v>1500000</v>
+        <v>1985.87</v>
       </c>
       <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="S2" t="s">
         <v>123</v>
       </c>
-      <c r="I2" t="s">
+      <c r="T2" t="s">
         <v>124</v>
       </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="U2" t="s">
         <v>125</v>
       </c>
-      <c r="L2" t="s">
+      <c r="V2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
         <v>103</v>
       </c>
-      <c r="M2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC2">
-        <v>4</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>106</v>
-      </c>
       <c r="AE2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/excel_file1.xlsx
+++ b/excel_file1.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamunur.shawon\PycharmProjects\testpro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3E81FE-0F14-4167-8A98-73CF3712AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEABF37F-96B6-40FB-AAE1-7805A123F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dms.e_money_refund_merchant" sheetId="1" r:id="rId1"/>
+    <sheet name="dms.e_money_refund" sheetId="1" r:id="rId1"/>
     <sheet name="dms.approval_task" sheetId="2" r:id="rId2"/>
     <sheet name="dms.approval_task_status" sheetId="3" r:id="rId3"/>
     <sheet name="dms.e_money_destroy" sheetId="4" r:id="rId4"/>
     <sheet name="dms.e_money_freeze" sheetId="5" r:id="rId5"/>
     <sheet name="SPG.e_money_refund" sheetId="6" r:id="rId6"/>
-    <sheet name="SQL" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -37,9 +36,6 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>MERCHANT_INFO</t>
-  </si>
-  <si>
     <t>BANK_ACCOUNT_INFO</t>
   </si>
   <si>
@@ -88,9 +84,6 @@
     <t>E_MONEY_FREEZE_ID</t>
   </si>
   <si>
-    <t>BANK_INFO_2</t>
-  </si>
-  <si>
     <t>IS_AUTO_SETTLEMENT</t>
   </si>
   <si>
@@ -277,44 +270,9 @@
     <t>AUTH_TRX_UTC</t>
   </si>
   <si>
-    <t>select t.* from DMS.E_MONEY_REFUND_MERCHANT@mwtodr t where t.id in ('3765771', '3784451', '3783655' , '3785584', '3786578', '3786655', '3786656')</t>
-  </si>
-  <si>
-    <t>select t.* from dms.approval_task@mwtodr  t where t.task_info_id in ('3765771', '3784451', '3783655' , '3785584', '3786578', '3786655', '3786656')</t>
-  </si>
-  <si>
-    <t>select * from dms.approval_task_status@mwtodr  t where t.approval_task_id in_x000D_
-(select l.id from dms.approval_task@mwtodr  l where l.task_info_id in ('3765771', '3784451', '3783655' , '3785584', '3786578', '3786655', '3786656'))</t>
-  </si>
-  <si>
-    <t>select * from dms.e_money_destroy@mwtodr  r where r.id in_x000D_
-(select t.e_money_destroy_id from DMS.e_money_refund_merchant@mwtodr  t where t.id in ('3765771', '3784451', '3783655' , '3785584', '3786578', '3786655', '3786656'))</t>
-  </si>
-  <si>
-    <t>select * from dms.e_money_freeze@mwtodr  r where r.id in_x000D_
-(select t.e_money_freeze_id from DMS.E_MONEY_REFUND_MERCHANT@mwtodr  t where t.id in ('3765771', '3784451', '3783655' , '3785584', '3786578', '3786655', '3786656'))</t>
-  </si>
-  <si>
-    <t>select * from SPG.E_MONEY_REFUND@mwtodr  where FR_NR_NUMBER in (select TRX_NR_x000D_
-from dms.e_money_freeze@mwtodr  r where r.id in_x000D_
-(select t.e_money_freeze_id from DMS.E_MONEY_REFUND_MERCHANT@mwtodr  t where t.id in ('3765771', '3784451', '3783655' , '3785584', '3786578', '3786655', '3786656')))</t>
-  </si>
-  <si>
     <t>PENDING</t>
   </si>
   <si>
-    <t>farah.tasneem@nagad.com.bd</t>
-  </si>
-  <si>
-    <t>MERCHANT</t>
-  </si>
-  <si>
-    <t>E_MONEY_REFUND_MERCHANT</t>
-  </si>
-  <si>
-    <t>mohiul.omi@nagad.com.bd</t>
-  </si>
-  <si>
     <t>ACTIVE</t>
   </si>
   <si>
@@ -324,90 +282,15 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>MC00IWPQ006296</t>
-  </si>
-  <si>
-    <t>17-APR-24 03.00.03.032000 PM</t>
-  </si>
-  <si>
-    <t>24-APR-24 10.48.57.132000 AM</t>
-  </si>
-  <si>
-    <t>24-APR-24 10.48.56.777000 AM</t>
-  </si>
-  <si>
-    <t>0417090003</t>
-  </si>
-  <si>
-    <t>mc006297</t>
-  </si>
-  <si>
-    <t>POR000000011350233</t>
-  </si>
-  <si>
-    <t>20240417090003</t>
-  </si>
-  <si>
-    <t>POR000000011449950</t>
-  </si>
-  <si>
-    <t>20240424044856</t>
-  </si>
-  <si>
-    <t>17-APR-24 03.00.03.035000 PM</t>
-  </si>
-  <si>
-    <t>24-APR-24 10.48.57.134000 AM</t>
-  </si>
-  <si>
-    <t>3875306</t>
-  </si>
-  <si>
-    <t>18-APR-24 10.07.26.499000 AM</t>
-  </si>
-  <si>
-    <t>24-APR-24 10.48.56.785000 AM</t>
-  </si>
-  <si>
-    <t>24-APR-24 10.48.56.813000 AM</t>
-  </si>
-  <si>
-    <t>76E6CF0D05B5B8733B994A3E35C12B55</t>
-  </si>
-  <si>
-    <t>72T1WRV8</t>
-  </si>
-  <si>
-    <t>17-APR-24 03.00.04.475000 PM</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
-    <t>441172</t>
-  </si>
-  <si>
-    <t>DW87HP</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>596878</t>
-  </si>
-  <si>
-    <t>0780</t>
-  </si>
-  <si>
-    <t>8DF57ECCCB52BB734A17CC4A05C73E690AE3C38AC33CDFD5</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>66C815E4679741CCD350EAF6B34BFCE394CB65570C54DB38</t>
   </si>
   <si>
@@ -423,13 +306,106 @@
     <t>DFS                    Dhaka         BGD</t>
   </si>
   <si>
-    <t>0050</t>
-  </si>
-  <si>
-    <t>17-APR-24 03.00.03.107000 PM</t>
-  </si>
-  <si>
-    <t>17-APR-24 03.00.03.241000 PM</t>
+    <t>CHANNEL_PARTNER_INFO</t>
+  </si>
+  <si>
+    <t>DIS0065GE00331598</t>
+  </si>
+  <si>
+    <t>09-MAY-24 11.57.21.947000 AM</t>
+  </si>
+  <si>
+    <t>09-MAY-24 12.44.54.918000 PM</t>
+  </si>
+  <si>
+    <t>09-MAY-24 12.44.54.818000 PM</t>
+  </si>
+  <si>
+    <t>010084979605090557210000012345600000000000</t>
+  </si>
+  <si>
+    <t>islam.reyad@nagad.com.bd</t>
+  </si>
+  <si>
+    <t>d3186</t>
+  </si>
+  <si>
+    <t>POR000000011662904</t>
+  </si>
+  <si>
+    <t>20240509055721</t>
+  </si>
+  <si>
+    <t>POR000000011663415</t>
+  </si>
+  <si>
+    <t>20240509064454</t>
+  </si>
+  <si>
+    <t>E_MONEY_REFUND</t>
+  </si>
+  <si>
+    <t>1589737</t>
+  </si>
+  <si>
+    <t>09-MAY-24 12.44.54.951000 PM</t>
+  </si>
+  <si>
+    <t>09-MAY-24 11.57.21.955000 AM</t>
+  </si>
+  <si>
+    <t>PARTNER</t>
+  </si>
+  <si>
+    <t>09-MAY-24 12.35.07.260000 PM</t>
+  </si>
+  <si>
+    <t>09-MAY-24 12.44.54.822000 PM</t>
+  </si>
+  <si>
+    <t>09-MAY-24 12.44.54.832000 PM</t>
+  </si>
+  <si>
+    <t>DISTRIBUTOR</t>
+  </si>
+  <si>
+    <t>5F4344A239E518E25380A3C35D310B11</t>
+  </si>
+  <si>
+    <t>0509055721</t>
+  </si>
+  <si>
+    <t>09-MAY-24 11.58.12.055000 AM</t>
+  </si>
+  <si>
+    <t>72V3DUKK</t>
+  </si>
+  <si>
+    <t>849796</t>
+  </si>
+  <si>
+    <t>FV7TBJ</t>
+  </si>
+  <si>
+    <t>598278</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>251865E403816D9E0B369B77D4FB184A0258F434A9817B19</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>09-MAY-24 11.57.27.236000 AM</t>
+  </si>
+  <si>
+    <t>09-MAY-24 12.34.19.699000 PM</t>
   </si>
 </sst>
 </file>
@@ -778,7 +754,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -821,129 +797,129 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>3875306</v>
+        <v>1589737</v>
       </c>
       <c r="C2">
-        <v>1985.87</v>
+        <v>1300000</v>
       </c>
       <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>1341503</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>98</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>99</v>
       </c>
-      <c r="I2">
-        <v>131</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>101</v>
       </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>102</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>103</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" t="s">
-        <v>106</v>
-      </c>
       <c r="S2">
-        <v>4153875</v>
+        <v>4235249</v>
       </c>
       <c r="T2">
-        <v>5178838</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>25</v>
+        <v>5296077</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +934,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E24" sqref="E24"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -994,117 +970,117 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>13675385</v>
+        <v>13909209</v>
       </c>
       <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2">
-        <v>130</v>
-      </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2">
-        <v>269100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" t="s">
-        <v>100</v>
-      </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1122,7 +1098,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1150,57 +1126,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>7574775</v>
+        <v>7728310</v>
       </c>
       <c r="C2">
-        <v>269100</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>13675385</v>
+        <v>13909209</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>110</v>
@@ -1209,16 +1185,16 @@
         <v>111</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1266,63 +1242,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>4153875</v>
+        <v>4235249</v>
       </c>
       <c r="C2">
-        <v>1985.87</v>
+        <v>1300000</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>112</v>
@@ -1334,18 +1310,21 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O2">
-        <v>3875306</v>
+        <v>1589737</v>
       </c>
       <c r="P2" s="3"/>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P4" s="2"/>
@@ -1361,7 +1340,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1402,129 +1381,129 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>5178838</v>
+        <v>5296077</v>
       </c>
       <c r="C2">
-        <v>1985.87</v>
+        <v>1300000</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" t="s">
         <v>115</v>
       </c>
-      <c r="M2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" t="s">
-        <v>101</v>
-      </c>
       <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" t="s">
         <v>96</v>
       </c>
-      <c r="S2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>99</v>
       </c>
-      <c r="U2" t="s">
-        <v>90</v>
-      </c>
       <c r="V2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W2">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1588,217 +1567,171 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>5663155</v>
+        <v>5797673</v>
       </c>
       <c r="C2">
-        <v>1985.87</v>
+        <v>1300000</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>121</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>122</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>123</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" t="s">
         <v>124</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>125</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
         <v>126</v>
-      </c>
-      <c r="W2" t="s">
-        <v>127</v>
-      </c>
-      <c r="X2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>132</v>
       </c>
       <c r="AC2">
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
